--- a/AGILE DOCS/Unit_Test_Plan_v0.1.xlsx
+++ b/AGILE DOCS/Unit_Test_Plan_v0.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sentiment_analysis_app\AGILE DOCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4289B4-6CDE-45F8-B6C7-7E664295C1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14F6285-6707-4A5A-9DDA-130DA82C6BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C3B83BB6-2AB9-4547-8541-9F6969E92BF1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Actual Result</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>Passed. Accuracy was high, as expected.</t>
+  </si>
+  <si>
+    <t>M4 (UI Test)</t>
+  </si>
+  <si>
+    <t>Test all Streamlit pages</t>
+  </si>
+  <si>
+    <t>Check if every page opens and works</t>
+  </si>
+  <si>
+    <t>All pages working correctly</t>
+  </si>
+  <si>
+    <t>All pages worked correctly</t>
   </si>
 </sst>
 </file>
@@ -244,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -282,11 +297,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -294,7 +337,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,21 +657,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF95B16C-182C-4757-B929-A728708A2DB0}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.8" thickBot="1">
@@ -646,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="40.200000000000003" thickBot="1">
+    <row r="2" spans="1:6" ht="27" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -666,7 +713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="53.4" thickBot="1">
+    <row r="3" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -706,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="53.4" thickBot="1">
+    <row r="5" spans="1:6" ht="27" thickBot="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -726,7 +773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="66.599999999999994" thickBot="1">
+    <row r="6" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -746,7 +793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="53.4" thickBot="1">
+    <row r="7" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -766,7 +813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+    <row r="8" spans="1:6" ht="27" thickBot="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -807,23 +854,43 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="40.200000000000003" thickBot="1">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
